--- a/simulations/raw_inclusion_exclusion/Wolters_2018 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Wolters_2018 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -422,10 +422,10 @@
         <v>424</v>
       </c>
       <c r="C3">
-        <v>1913</v>
+        <v>187</v>
       </c>
       <c r="D3">
-        <v>1913</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -444,10 +444,10 @@
         <v>751</v>
       </c>
       <c r="C5">
-        <v>2524</v>
+        <v>949</v>
       </c>
       <c r="D5">
-        <v>2524</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -466,10 +466,10 @@
         <v>981</v>
       </c>
       <c r="C7">
-        <v>1795</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>1795</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -488,10 +488,10 @@
         <v>1061</v>
       </c>
       <c r="C9">
-        <v>1892</v>
+        <v>174</v>
       </c>
       <c r="D9">
-        <v>1892</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -510,10 +510,10 @@
         <v>1098</v>
       </c>
       <c r="C11">
-        <v>1916</v>
+        <v>201</v>
       </c>
       <c r="D11">
-        <v>1916</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -532,10 +532,10 @@
         <v>1144</v>
       </c>
       <c r="C13">
-        <v>1801</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>1801</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,10 +554,10 @@
         <v>1169</v>
       </c>
       <c r="C15">
-        <v>1973</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>1973</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -576,10 +576,10 @@
         <v>1779</v>
       </c>
       <c r="C17">
-        <v>1800</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>1800</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -598,10 +598,10 @@
         <v>1804</v>
       </c>
       <c r="C19">
-        <v>1786</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>1786</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -620,10 +620,10 @@
         <v>2009</v>
       </c>
       <c r="C21">
-        <v>1804</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>1804</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -642,10 +642,10 @@
         <v>2470</v>
       </c>
       <c r="C23">
-        <v>1778</v>
+        <v>457</v>
       </c>
       <c r="D23">
-        <v>1778</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -653,10 +653,10 @@
         <v>2776</v>
       </c>
       <c r="C24">
-        <v>2128</v>
+        <v>330</v>
       </c>
       <c r="D24">
-        <v>2128</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -675,10 +675,10 @@
         <v>2784</v>
       </c>
       <c r="C26">
-        <v>1982</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>1982</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -697,10 +697,10 @@
         <v>3297</v>
       </c>
       <c r="C28">
-        <v>2186</v>
+        <v>333</v>
       </c>
       <c r="D28">
-        <v>2186</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -719,10 +719,10 @@
         <v>3328</v>
       </c>
       <c r="C30">
-        <v>1874</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>1874</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -741,10 +741,10 @@
         <v>3332</v>
       </c>
       <c r="C32">
-        <v>1811</v>
+        <v>62</v>
       </c>
       <c r="D32">
-        <v>1811</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -763,10 +763,10 @@
         <v>3937</v>
       </c>
       <c r="C34">
-        <v>1805</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>1805</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -785,10 +785,10 @@
         <v>4074</v>
       </c>
       <c r="C36">
-        <v>1984</v>
+        <v>69</v>
       </c>
       <c r="D36">
-        <v>1984</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -807,10 +807,10 @@
         <v>4262</v>
       </c>
       <c r="C38">
-        <v>1785</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>1785</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -821,7 +821,7 @@
         <v>153.6666666666667</v>
       </c>
       <c r="C39">
-        <v>1923</v>
+        <v>158.578947368421</v>
       </c>
     </row>
   </sheetData>
